--- a/Code/Results/Cases/Case_0_225/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_225/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1423222837629936</v>
+        <v>0.04864846792477806</v>
       </c>
       <c r="D2">
-        <v>0.2154628652529169</v>
+        <v>0.1941765291412167</v>
       </c>
       <c r="E2">
-        <v>0.1754405327896862</v>
+        <v>0.1678980535918484</v>
       </c>
       <c r="F2">
-        <v>0.7273991141719378</v>
+        <v>1.420009619434879</v>
       </c>
       <c r="G2">
-        <v>0.0007962868520158119</v>
+        <v>0.002460955856352731</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1875893350154101</v>
+        <v>0.1875123552826565</v>
       </c>
       <c r="K2">
-        <v>5.215998273567436</v>
+        <v>1.984762760414014</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.507964837344531</v>
+        <v>3.418384124897045</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1230142560385872</v>
+        <v>0.04322810012756406</v>
       </c>
       <c r="D3">
-        <v>0.1903520016986135</v>
+        <v>0.1874186996394798</v>
       </c>
       <c r="E3">
-        <v>0.1558939866218907</v>
+        <v>0.1634744811215398</v>
       </c>
       <c r="F3">
-        <v>0.6938606305567916</v>
+        <v>1.429637574686993</v>
       </c>
       <c r="G3">
-        <v>0.0008017166354104825</v>
+        <v>0.002464427855176485</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1673922154630958</v>
+        <v>0.1836935370985913</v>
       </c>
       <c r="K3">
-        <v>4.5334769412583</v>
+        <v>1.771614680571133</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.476535663863586</v>
+        <v>3.460778934695327</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1112864699380935</v>
+        <v>0.03991531886543953</v>
       </c>
       <c r="D4">
-        <v>0.1750407267511918</v>
+        <v>0.1833153322243959</v>
       </c>
       <c r="E4">
-        <v>0.1440720092652015</v>
+        <v>0.1608344221120284</v>
       </c>
       <c r="F4">
-        <v>0.6757470343889693</v>
+        <v>1.436672043547993</v>
       </c>
       <c r="G4">
-        <v>0.0008051476531247114</v>
+        <v>0.002466670940765399</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1552878916573306</v>
+        <v>0.1814652300583433</v>
       </c>
       <c r="K4">
-        <v>4.115455108063486</v>
+        <v>1.640514740126662</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.464120278205826</v>
+        <v>3.489828238116857</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1065349217233518</v>
+        <v>0.0385691550447973</v>
       </c>
       <c r="D5">
-        <v>0.1688247061597536</v>
+        <v>0.1816548435506604</v>
       </c>
       <c r="E5">
-        <v>0.1392952806999546</v>
+        <v>0.1597777205352919</v>
       </c>
       <c r="F5">
-        <v>0.6689489220194602</v>
+        <v>1.439820357181794</v>
       </c>
       <c r="G5">
-        <v>0.0008065709353495229</v>
+        <v>0.002467613081776093</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1504232561668744</v>
+        <v>0.1805864147440417</v>
       </c>
       <c r="K5">
-        <v>3.945291046207274</v>
+        <v>1.58703640985658</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.460682712730744</v>
+        <v>3.502422980041047</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1057474748639606</v>
+        <v>0.03834585528869638</v>
       </c>
       <c r="D6">
-        <v>0.1677938611227603</v>
+        <v>0.1813798285321297</v>
       </c>
       <c r="E6">
-        <v>0.1385044520985943</v>
+        <v>0.1596034130449979</v>
       </c>
       <c r="F6">
-        <v>0.6678542062461545</v>
+        <v>1.440360128053698</v>
       </c>
       <c r="G6">
-        <v>0.0008068088067018802</v>
+        <v>0.002467771221261854</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1496194061219427</v>
+        <v>0.1804422526538971</v>
       </c>
       <c r="K6">
-        <v>3.917044261577871</v>
+        <v>1.578153194308584</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.46020680506399</v>
+        <v>3.504559979669509</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1112222827109122</v>
+        <v>0.03989714860524884</v>
       </c>
       <c r="D7">
-        <v>0.1749568047449941</v>
+        <v>0.1832928909092431</v>
       </c>
       <c r="E7">
-        <v>0.1440074288979147</v>
+        <v>0.1608200935177351</v>
       </c>
       <c r="F7">
-        <v>0.6756530420028142</v>
+        <v>1.436713363030918</v>
       </c>
       <c r="G7">
-        <v>0.0008051667454071305</v>
+        <v>0.002466683533047262</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1552220187422364</v>
+        <v>0.1814532597265242</v>
       </c>
       <c r="K7">
-        <v>4.113159576175349</v>
+        <v>1.639793727678693</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.464067490317348</v>
+        <v>3.489995033384176</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1356356766951734</v>
+        <v>0.04677631561888518</v>
       </c>
       <c r="D8">
-        <v>0.2067803046887207</v>
+        <v>0.1918369510690781</v>
       </c>
       <c r="E8">
-        <v>0.1686608721496299</v>
+        <v>0.1663570382808857</v>
       </c>
       <c r="F8">
-        <v>0.7152955829251937</v>
+        <v>1.423095898802856</v>
       </c>
       <c r="G8">
-        <v>0.0007981393187595423</v>
+        <v>0.0024621299610361</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1805596232870741</v>
+        <v>0.1861714244319401</v>
       </c>
       <c r="K8">
-        <v>4.980396582304479</v>
+        <v>1.911317858290829</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.49563204343832</v>
+        <v>3.432374017467197</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1847374459645579</v>
+        <v>0.060390502675844</v>
       </c>
       <c r="D9">
-        <v>0.2702048177883256</v>
+        <v>0.2089528160980052</v>
       </c>
       <c r="E9">
-        <v>0.2186459670316765</v>
+        <v>0.1778179313800763</v>
       </c>
       <c r="F9">
-        <v>0.8146496727287627</v>
+        <v>1.405331610978365</v>
       </c>
       <c r="G9">
-        <v>0.0007850952412030925</v>
+        <v>0.002454079269666277</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2329269327547081</v>
+        <v>0.1963507164034723</v>
       </c>
       <c r="K9">
-        <v>6.693409663218745</v>
+        <v>2.441885180827967</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.617408743255623</v>
+        <v>3.343429728207326</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2218884219344659</v>
+        <v>0.07047286026893573</v>
       </c>
       <c r="D10">
-        <v>0.3176861419321142</v>
+        <v>0.221744368058836</v>
       </c>
       <c r="E10">
-        <v>0.2566957985110392</v>
+        <v>0.1866065463366908</v>
       </c>
       <c r="F10">
-        <v>0.9037535800162715</v>
+        <v>1.397773163144322</v>
       </c>
       <c r="G10">
-        <v>0.0007759098455305231</v>
+        <v>0.002448694592733589</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2735294767387018</v>
+        <v>0.2043996737552618</v>
       </c>
       <c r="K10">
-        <v>7.965763556186289</v>
+        <v>2.830452470996534</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.751323431231981</v>
+        <v>3.292880653044818</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.23910331386449</v>
+        <v>0.07507795240437076</v>
       </c>
       <c r="D11">
-        <v>0.3395432144170059</v>
+        <v>0.2276099576311026</v>
       </c>
       <c r="E11">
-        <v>0.274373841611748</v>
+        <v>0.1906849254740948</v>
       </c>
       <c r="F11">
-        <v>0.9485070903881194</v>
+        <v>1.395536798181269</v>
       </c>
       <c r="G11">
-        <v>0.0007718051983675451</v>
+        <v>0.002446358888686087</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2925845667162434</v>
+        <v>0.2081863509418156</v>
       </c>
       <c r="K11">
-        <v>8.549146804882866</v>
+        <v>3.006937157757989</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.823847793061987</v>
+        <v>3.273127375713244</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2456747341861814</v>
+        <v>0.07682451019792325</v>
       </c>
       <c r="D12">
-        <v>0.3478628481152413</v>
+        <v>0.229837729524462</v>
       </c>
       <c r="E12">
-        <v>0.2811284672226648</v>
+        <v>0.1922408587982218</v>
       </c>
       <c r="F12">
-        <v>0.9661273954530429</v>
+        <v>1.394863536550631</v>
       </c>
       <c r="G12">
-        <v>0.0007702603674480825</v>
+        <v>0.00244549069394034</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2998955371853924</v>
+        <v>0.2096383395635684</v>
       </c>
       <c r="K12">
-        <v>8.770860140911566</v>
+        <v>3.073725471534487</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.853160596820771</v>
+        <v>3.266115897412021</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2442570028161981</v>
+        <v>0.07644823662143096</v>
       </c>
       <c r="D13">
-        <v>0.3460690627943279</v>
+        <v>0.2293576471275429</v>
       </c>
       <c r="E13">
-        <v>0.2796709309909104</v>
+        <v>0.1919052478131036</v>
       </c>
       <c r="F13">
-        <v>0.9623014853463872</v>
+        <v>1.395000802515924</v>
       </c>
       <c r="G13">
-        <v>0.0007705926702291643</v>
+        <v>0.002445676952057719</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2983165649884683</v>
+        <v>0.2093248238613938</v>
       </c>
       <c r="K13">
-        <v>8.723072306875849</v>
+        <v>3.05934335280881</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.846762245596523</v>
+        <v>3.267605061145531</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2396428521189193</v>
+        <v>0.07522158824734504</v>
       </c>
       <c r="D14">
-        <v>0.3402267820362681</v>
+        <v>0.2277931060936425</v>
       </c>
       <c r="E14">
-        <v>0.274928295368106</v>
+        <v>0.1908127018900601</v>
       </c>
       <c r="F14">
-        <v>0.9499428303955</v>
+        <v>1.395477924994722</v>
       </c>
       <c r="G14">
-        <v>0.0007716779202620819</v>
+        <v>0.002446287135688598</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2931840686521099</v>
+        <v>0.2083054447163164</v>
       </c>
       <c r="K14">
-        <v>8.567370435921816</v>
+        <v>3.012432742525334</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.826221214129532</v>
+        <v>3.272541130222663</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2368236174049372</v>
+        <v>0.07447058466756573</v>
       </c>
       <c r="D15">
-        <v>0.3366539761862839</v>
+        <v>0.2268356359389543</v>
       </c>
       <c r="E15">
-        <v>0.2720313792366653</v>
+        <v>0.1901449881626007</v>
       </c>
       <c r="F15">
-        <v>0.9424625350414431</v>
+        <v>1.395792806676212</v>
       </c>
       <c r="G15">
-        <v>0.0007723438711966984</v>
+        <v>0.002446663009467333</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2900530158763388</v>
+        <v>0.2076833987151048</v>
       </c>
       <c r="K15">
-        <v>8.472106951037347</v>
+        <v>2.983693007086572</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.813885739944709</v>
+        <v>3.275625722527536</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2207703266002028</v>
+        <v>0.07017228372679085</v>
       </c>
       <c r="D16">
-        <v>0.3162633969336355</v>
+        <v>0.2213619674397478</v>
       </c>
       <c r="E16">
-        <v>0.2555485279765648</v>
+        <v>0.1863416305975036</v>
       </c>
       <c r="F16">
-        <v>0.9009192721749741</v>
+        <v>1.397943566779489</v>
       </c>
       <c r="G16">
-        <v>0.0007761794872425723</v>
+        <v>0.002448849519841239</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2722968763974762</v>
+        <v>0.2041547290519787</v>
       </c>
       <c r="K16">
-        <v>7.927741943140518</v>
+        <v>2.818912973020417</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.746832373108589</v>
+        <v>3.294237022078278</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2110077184879344</v>
+        <v>0.06754020031053187</v>
       </c>
       <c r="D17">
-        <v>0.303824362293426</v>
+        <v>0.2180159198544658</v>
       </c>
       <c r="E17">
-        <v>0.2455363008742211</v>
+        <v>0.1840289696465547</v>
       </c>
       <c r="F17">
-        <v>0.8765598464963631</v>
+        <v>1.399571388147294</v>
       </c>
       <c r="G17">
-        <v>0.0007785506671580491</v>
+        <v>0.002450219965890788</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.261561426192543</v>
+        <v>0.2020221032046692</v>
       </c>
       <c r="K17">
-        <v>7.595060613223666</v>
+        <v>2.717752894856915</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.708792953661828</v>
+        <v>3.306486519249518</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2054216758283332</v>
+        <v>0.06602804182769262</v>
       </c>
       <c r="D18">
-        <v>0.2966936249984258</v>
+        <v>0.2160957588874197</v>
       </c>
       <c r="E18">
-        <v>0.2398117886052731</v>
+        <v>0.182706356513421</v>
       </c>
       <c r="F18">
-        <v>0.8629418018315107</v>
+        <v>1.400620761775002</v>
       </c>
       <c r="G18">
-        <v>0.0007799215287809456</v>
+        <v>0.002451018927557173</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2554409956251789</v>
+        <v>0.2008072509830896</v>
       </c>
       <c r="K18">
-        <v>7.404133341202623</v>
+        <v>2.659542432368596</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.68799431443523</v>
+        <v>3.31383708532411</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2035351341368283</v>
+        <v>0.06551634971974352</v>
       </c>
       <c r="D19">
-        <v>0.2942832112198914</v>
+        <v>0.2154463838860323</v>
       </c>
       <c r="E19">
-        <v>0.2378792400208241</v>
+        <v>0.1822598429407165</v>
       </c>
       <c r="F19">
-        <v>0.8583965183833442</v>
+        <v>1.400995462692549</v>
       </c>
       <c r="G19">
-        <v>0.0007803869170957594</v>
+        <v>0.002451291285351487</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2533777299695572</v>
+        <v>0.2003979439960801</v>
       </c>
       <c r="K19">
-        <v>7.339557130618005</v>
+        <v>2.639829015822158</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.681132628307296</v>
+        <v>3.316378165094079</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2120438972833938</v>
+        <v>0.06782020907712649</v>
       </c>
       <c r="D20">
-        <v>0.3051460084444955</v>
+        <v>0.2183716580335755</v>
       </c>
       <c r="E20">
-        <v>0.2465985236687729</v>
+        <v>0.1842743732193881</v>
       </c>
       <c r="F20">
-        <v>0.8791118295746116</v>
+        <v>1.399386393534456</v>
       </c>
       <c r="G20">
-        <v>0.0007782975320103062</v>
+        <v>0.002450072970786588</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2626985344181065</v>
+        <v>0.2022479055002719</v>
       </c>
       <c r="K20">
-        <v>7.630430441157841</v>
+        <v>2.728524255174989</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.712729220925809</v>
+        <v>3.305150957034044</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2409966535974775</v>
+        <v>0.07558181077490644</v>
       </c>
       <c r="D21">
-        <v>0.3419415900369387</v>
+        <v>0.2282524714368321</v>
       </c>
       <c r="E21">
-        <v>0.2763196234961782</v>
+        <v>0.1911332960912233</v>
       </c>
       <c r="F21">
-        <v>0.953554038188102</v>
+        <v>1.395333065058509</v>
       </c>
       <c r="G21">
-        <v>0.0007713589072887696</v>
+        <v>0.002446107468673365</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2946889288543986</v>
+        <v>0.208604370581881</v>
       </c>
       <c r="K21">
-        <v>8.613080988465754</v>
+        <v>3.026212704622708</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.832202895402901</v>
+        <v>3.271078547876641</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2602289173597541</v>
+        <v>0.08067027611038213</v>
       </c>
       <c r="D22">
-        <v>0.3662424045313628</v>
+        <v>0.2347485776889187</v>
       </c>
       <c r="E22">
-        <v>0.2960996503519837</v>
+        <v>0.1956832515025297</v>
       </c>
       <c r="F22">
-        <v>1.006165321317326</v>
+        <v>1.393696211939755</v>
       </c>
       <c r="G22">
-        <v>0.0007668789574543644</v>
+        <v>0.002443610672571974</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3161574961068681</v>
+        <v>0.2128639601493347</v>
       </c>
       <c r="K22">
-        <v>9.260030897821878</v>
+        <v>3.220519688785885</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.921162328732578</v>
+        <v>3.25154312463215</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2499333560443091</v>
+        <v>0.07795300716981046</v>
       </c>
       <c r="D23">
-        <v>0.353247410450436</v>
+        <v>0.2312780029040766</v>
       </c>
       <c r="E23">
-        <v>0.2855075525979771</v>
+        <v>0.19324870773508</v>
       </c>
       <c r="F23">
-        <v>0.9776998182963013</v>
+        <v>1.394476962784893</v>
       </c>
       <c r="G23">
-        <v>0.0007692653656870245</v>
+        <v>0.002444934603767157</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3046440191854174</v>
+        <v>0.2105808854793878</v>
       </c>
       <c r="K23">
-        <v>8.914258781757326</v>
+        <v>3.116838160598547</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.872623501214349</v>
+        <v>3.261718663818925</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2115753585034099</v>
+        <v>0.06769361381330441</v>
       </c>
       <c r="D24">
-        <v>0.3045484283948809</v>
+        <v>0.2182108178124196</v>
       </c>
       <c r="E24">
-        <v>0.2461181947005429</v>
+        <v>0.1841634045645435</v>
       </c>
       <c r="F24">
-        <v>0.8779568790579049</v>
+        <v>1.39946967604628</v>
       </c>
       <c r="G24">
-        <v>0.0007784119505511442</v>
+        <v>0.00245013939288371</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2621842881353587</v>
+        <v>0.2021457853310835</v>
       </c>
       <c r="K24">
-        <v>7.614438706843487</v>
+        <v>2.723654685526697</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.710946312842481</v>
+        <v>3.305753804946676</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1712905140353342</v>
+        <v>0.05669376618271826</v>
       </c>
       <c r="D25">
-        <v>0.2529120324795997</v>
+        <v>0.2042842470229118</v>
       </c>
       <c r="E25">
-        <v>0.2049161229725982</v>
+        <v>0.1746528340273841</v>
       </c>
       <c r="F25">
-        <v>0.785169910951879</v>
+        <v>1.409175821444236</v>
       </c>
       <c r="G25">
-        <v>0.0007885501724044475</v>
+        <v>0.002456163689288478</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2184247590417812</v>
+        <v>0.1934971814717699</v>
       </c>
       <c r="K25">
-        <v>6.228058264277593</v>
+        <v>2.298564372189901</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.577275068768131</v>
+        <v>3.364902651233393</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_225/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_225/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04864846792477806</v>
+        <v>0.1423222837627378</v>
       </c>
       <c r="D2">
-        <v>0.1941765291412167</v>
+        <v>0.2154628652528743</v>
       </c>
       <c r="E2">
-        <v>0.1678980535918484</v>
+        <v>0.1754405327896933</v>
       </c>
       <c r="F2">
-        <v>1.420009619434879</v>
+        <v>0.7273991141719307</v>
       </c>
       <c r="G2">
-        <v>0.002460955856352731</v>
+        <v>0.0007962868520168227</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1875123552826565</v>
+        <v>0.187589335015403</v>
       </c>
       <c r="K2">
-        <v>1.984762760414014</v>
+        <v>5.215998273567379</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.418384124897045</v>
+        <v>1.507964837344474</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04322810012756406</v>
+        <v>0.1230142560386867</v>
       </c>
       <c r="D3">
-        <v>0.1874186996394798</v>
+        <v>0.1903520016987414</v>
       </c>
       <c r="E3">
-        <v>0.1634744811215398</v>
+        <v>0.1558939866218836</v>
       </c>
       <c r="F3">
-        <v>1.429637574686993</v>
+        <v>0.6938606305568271</v>
       </c>
       <c r="G3">
-        <v>0.002464427855176485</v>
+        <v>0.0008017166354473693</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1836935370985913</v>
+        <v>0.1673922154631384</v>
       </c>
       <c r="K3">
-        <v>1.771614680571133</v>
+        <v>4.533476941258414</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.460778934695327</v>
+        <v>1.476535663863615</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03991531886543953</v>
+        <v>0.111286469938122</v>
       </c>
       <c r="D4">
-        <v>0.1833153322243959</v>
+        <v>0.1750407267512344</v>
       </c>
       <c r="E4">
-        <v>0.1608344221120284</v>
+        <v>0.1440720092651695</v>
       </c>
       <c r="F4">
-        <v>1.436672043547993</v>
+        <v>0.6757470343889551</v>
       </c>
       <c r="G4">
-        <v>0.002466670940765399</v>
+        <v>0.0008051476530673966</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1814652300583433</v>
+        <v>0.1552878916573306</v>
       </c>
       <c r="K4">
-        <v>1.640514740126662</v>
+        <v>4.115455108063429</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.489828238116857</v>
+        <v>1.464120278205769</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0385691550447973</v>
+        <v>0.1065349217231812</v>
       </c>
       <c r="D5">
-        <v>0.1816548435506604</v>
+        <v>0.1688247061598815</v>
       </c>
       <c r="E5">
-        <v>0.1597777205352919</v>
+        <v>0.1392952806999403</v>
       </c>
       <c r="F5">
-        <v>1.439820357181794</v>
+        <v>0.6689489220194247</v>
       </c>
       <c r="G5">
-        <v>0.002467613081776093</v>
+        <v>0.0008065709353499961</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1805864147440417</v>
+        <v>0.1504232561668246</v>
       </c>
       <c r="K5">
-        <v>1.58703640985658</v>
+        <v>3.945291046207387</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.502422980041047</v>
+        <v>1.46068271273073</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03834585528869638</v>
+        <v>0.1057474748639606</v>
       </c>
       <c r="D6">
-        <v>0.1813798285321297</v>
+        <v>0.1677938611227745</v>
       </c>
       <c r="E6">
-        <v>0.1596034130449979</v>
+        <v>0.1385044520985659</v>
       </c>
       <c r="F6">
-        <v>1.440360128053698</v>
+        <v>0.6678542062461545</v>
       </c>
       <c r="G6">
-        <v>0.002467771221261854</v>
+        <v>0.0008068088067600943</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1804422526538971</v>
+        <v>0.1496194061219711</v>
       </c>
       <c r="K6">
-        <v>1.578153194308584</v>
+        <v>3.917044261577871</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.504559979669509</v>
+        <v>1.460206805064018</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03989714860524884</v>
+        <v>0.1112222827110259</v>
       </c>
       <c r="D7">
-        <v>0.1832928909092431</v>
+        <v>0.1749568047448662</v>
       </c>
       <c r="E7">
-        <v>0.1608200935177351</v>
+        <v>0.1440074288979147</v>
       </c>
       <c r="F7">
-        <v>1.436713363030918</v>
+        <v>0.6756530420027929</v>
       </c>
       <c r="G7">
-        <v>0.002466683533047262</v>
+        <v>0.0008051667453489952</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1814532597265242</v>
+        <v>0.1552220187423003</v>
       </c>
       <c r="K7">
-        <v>1.639793727678693</v>
+        <v>4.113159576175406</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.489995033384176</v>
+        <v>1.464067490317404</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04677631561888518</v>
+        <v>0.1356356766952729</v>
       </c>
       <c r="D8">
-        <v>0.1918369510690781</v>
+        <v>0.2067803046887775</v>
       </c>
       <c r="E8">
-        <v>0.1663570382808857</v>
+        <v>0.1686608721496157</v>
       </c>
       <c r="F8">
-        <v>1.423095898802856</v>
+        <v>0.7152955829251866</v>
       </c>
       <c r="G8">
-        <v>0.0024621299610361</v>
+        <v>0.0007981393188169483</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1861714244319401</v>
+        <v>0.1805596232870954</v>
       </c>
       <c r="K8">
-        <v>1.911317858290829</v>
+        <v>4.980396582304536</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.432374017467197</v>
+        <v>1.495632043438206</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.060390502675844</v>
+        <v>0.1847374459643305</v>
       </c>
       <c r="D9">
-        <v>0.2089528160980052</v>
+        <v>0.2702048177882261</v>
       </c>
       <c r="E9">
-        <v>0.1778179313800763</v>
+        <v>0.2186459670316623</v>
       </c>
       <c r="F9">
-        <v>1.405331610978365</v>
+        <v>0.8146496727287769</v>
       </c>
       <c r="G9">
-        <v>0.002454079269666277</v>
+        <v>0.0007850952412077469</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1963507164034723</v>
+        <v>0.2329269327548786</v>
       </c>
       <c r="K9">
-        <v>2.441885180827967</v>
+        <v>6.693409663218745</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.343429728207326</v>
+        <v>1.617408743255623</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07047286026893573</v>
+        <v>0.2218884219344375</v>
       </c>
       <c r="D10">
-        <v>0.221744368058836</v>
+        <v>0.3176861419322989</v>
       </c>
       <c r="E10">
-        <v>0.1866065463366908</v>
+        <v>0.2566957985110534</v>
       </c>
       <c r="F10">
-        <v>1.397773163144322</v>
+        <v>0.9037535800162715</v>
       </c>
       <c r="G10">
-        <v>0.002448694592733589</v>
+        <v>0.0007759098455313307</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2043996737552618</v>
+        <v>0.2735294767388012</v>
       </c>
       <c r="K10">
-        <v>2.830452470996534</v>
+        <v>7.965763556186232</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.292880653044818</v>
+        <v>1.751323431232009</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07507795240437076</v>
+        <v>0.2391033138647174</v>
       </c>
       <c r="D11">
-        <v>0.2276099576311026</v>
+        <v>0.3395432144168211</v>
       </c>
       <c r="E11">
-        <v>0.1906849254740948</v>
+        <v>0.2743738416117409</v>
       </c>
       <c r="F11">
-        <v>1.395536798181269</v>
+        <v>0.9485070903881194</v>
       </c>
       <c r="G11">
-        <v>0.002446358888686087</v>
+        <v>0.0007718051983670568</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2081863509418156</v>
+        <v>0.2925845667161582</v>
       </c>
       <c r="K11">
-        <v>3.006937157757989</v>
+        <v>8.549146804882866</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.273127375713244</v>
+        <v>1.823847793061987</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07682451019792325</v>
+        <v>0.2456747341861671</v>
       </c>
       <c r="D12">
-        <v>0.229837729524462</v>
+        <v>0.3478628481151844</v>
       </c>
       <c r="E12">
-        <v>0.1922408587982218</v>
+        <v>0.2811284672226719</v>
       </c>
       <c r="F12">
-        <v>1.394863536550631</v>
+        <v>0.9661273954530429</v>
       </c>
       <c r="G12">
-        <v>0.00244549069394034</v>
+        <v>0.0007702603675042321</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2096383395635684</v>
+        <v>0.2998955371854066</v>
       </c>
       <c r="K12">
-        <v>3.073725471534487</v>
+        <v>8.770860140911509</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.266115897412021</v>
+        <v>1.853160596820715</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07644823662143096</v>
+        <v>0.2442570028161839</v>
       </c>
       <c r="D13">
-        <v>0.2293576471275429</v>
+        <v>0.346069062794399</v>
       </c>
       <c r="E13">
-        <v>0.1919052478131036</v>
+        <v>0.279670930990946</v>
       </c>
       <c r="F13">
-        <v>1.395000802515924</v>
+        <v>0.9623014853463872</v>
       </c>
       <c r="G13">
-        <v>0.002445676952057719</v>
+        <v>0.0007705926702009617</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2093248238613938</v>
+        <v>0.2983165649885109</v>
       </c>
       <c r="K13">
-        <v>3.05934335280881</v>
+        <v>8.723072306875849</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.267605061145531</v>
+        <v>1.846762245596523</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07522158824734504</v>
+        <v>0.2396428521192604</v>
       </c>
       <c r="D14">
-        <v>0.2277931060936425</v>
+        <v>0.3402267820362539</v>
       </c>
       <c r="E14">
-        <v>0.1908127018900601</v>
+        <v>0.2749282953681345</v>
       </c>
       <c r="F14">
-        <v>1.395477924994722</v>
+        <v>0.9499428303955</v>
       </c>
       <c r="G14">
-        <v>0.002446287135688598</v>
+        <v>0.000771677920287565</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2083054447163164</v>
+        <v>0.2931840686521099</v>
       </c>
       <c r="K14">
-        <v>3.012432742525334</v>
+        <v>8.567370435921873</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.272541130222663</v>
+        <v>1.826221214129532</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07447058466756573</v>
+        <v>0.2368236174044398</v>
       </c>
       <c r="D15">
-        <v>0.2268356359389543</v>
+        <v>0.3366539761863976</v>
       </c>
       <c r="E15">
-        <v>0.1901449881626007</v>
+        <v>0.2720313792366653</v>
       </c>
       <c r="F15">
-        <v>1.395792806676212</v>
+        <v>0.9424625350414431</v>
       </c>
       <c r="G15">
-        <v>0.002446663009467333</v>
+        <v>0.0007723438711704972</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2076833987151048</v>
+        <v>0.2900530158763388</v>
       </c>
       <c r="K15">
-        <v>2.983693007086572</v>
+        <v>8.47210695103729</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.275625722527536</v>
+        <v>1.813885739944737</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07017228372679085</v>
+        <v>0.2207703265999612</v>
       </c>
       <c r="D16">
-        <v>0.2213619674397478</v>
+        <v>0.3162633969335786</v>
       </c>
       <c r="E16">
-        <v>0.1863416305975036</v>
+        <v>0.255548527976579</v>
       </c>
       <c r="F16">
-        <v>1.397943566779489</v>
+        <v>0.9009192721749741</v>
       </c>
       <c r="G16">
-        <v>0.002448849519841239</v>
+        <v>0.0007761794872415441</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2041547290519787</v>
+        <v>0.2722968763974905</v>
       </c>
       <c r="K16">
-        <v>2.818912973020417</v>
+        <v>7.92774194314029</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.294237022078278</v>
+        <v>1.746832373108475</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06754020031053187</v>
+        <v>0.2110077184879202</v>
       </c>
       <c r="D17">
-        <v>0.2180159198544658</v>
+        <v>0.3038243622933123</v>
       </c>
       <c r="E17">
-        <v>0.1840289696465547</v>
+        <v>0.2455363008742282</v>
       </c>
       <c r="F17">
-        <v>1.399571388147294</v>
+        <v>0.8765598464963631</v>
       </c>
       <c r="G17">
-        <v>0.002450219965890788</v>
+        <v>0.0007785506672093825</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2020221032046692</v>
+        <v>0.2615614261925572</v>
       </c>
       <c r="K17">
-        <v>2.717752894856915</v>
+        <v>7.595060613223666</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.306486519249518</v>
+        <v>1.708792953661884</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06602804182769262</v>
+        <v>0.2054216758283332</v>
       </c>
       <c r="D18">
-        <v>0.2160957588874197</v>
+        <v>0.2966936249982552</v>
       </c>
       <c r="E18">
-        <v>0.182706356513421</v>
+        <v>0.239811788605266</v>
       </c>
       <c r="F18">
-        <v>1.400620761775002</v>
+        <v>0.8629418018315107</v>
       </c>
       <c r="G18">
-        <v>0.002451018927557173</v>
+        <v>0.0007799215287796479</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2008072509830896</v>
+        <v>0.255440995625051</v>
       </c>
       <c r="K18">
-        <v>2.659542432368596</v>
+        <v>7.40413334120251</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.31383708532411</v>
+        <v>1.687994314435173</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06551634971974352</v>
+        <v>0.2035351341370699</v>
       </c>
       <c r="D19">
-        <v>0.2154463838860323</v>
+        <v>0.2942832112198914</v>
       </c>
       <c r="E19">
-        <v>0.1822598429407165</v>
+        <v>0.2378792400208383</v>
       </c>
       <c r="F19">
-        <v>1.400995462692549</v>
+        <v>0.85839651838333</v>
       </c>
       <c r="G19">
-        <v>0.002451291285351487</v>
+        <v>0.0007803869170979798</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2003979439960801</v>
+        <v>0.2533777299695714</v>
       </c>
       <c r="K19">
-        <v>2.639829015822158</v>
+        <v>7.339557130617948</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.316378165094079</v>
+        <v>1.681132628307267</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06782020907712649</v>
+        <v>0.2120438972835075</v>
       </c>
       <c r="D20">
-        <v>0.2183716580335755</v>
+        <v>0.305146008444467</v>
       </c>
       <c r="E20">
-        <v>0.1842743732193881</v>
+        <v>0.2465985236687871</v>
       </c>
       <c r="F20">
-        <v>1.399386393534456</v>
+        <v>0.8791118295746259</v>
       </c>
       <c r="G20">
-        <v>0.002450072970786588</v>
+        <v>0.0007782975319843604</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2022479055002719</v>
+        <v>0.2626985344181918</v>
       </c>
       <c r="K20">
-        <v>2.728524255174989</v>
+        <v>7.630430441157955</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.305150957034044</v>
+        <v>1.712729220925837</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07558181077490644</v>
+        <v>0.240996653597378</v>
       </c>
       <c r="D21">
-        <v>0.2282524714368321</v>
+        <v>0.3419415900369103</v>
       </c>
       <c r="E21">
-        <v>0.1911332960912233</v>
+        <v>0.2763196234961782</v>
       </c>
       <c r="F21">
-        <v>1.395333065058509</v>
+        <v>0.953554038188102</v>
       </c>
       <c r="G21">
-        <v>0.002446107468673365</v>
+        <v>0.0007713589072592144</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.208604370581881</v>
+        <v>0.2946889288544412</v>
       </c>
       <c r="K21">
-        <v>3.026212704622708</v>
+        <v>8.613080988465811</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.271078547876641</v>
+        <v>1.832202895403015</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08067027611038213</v>
+        <v>0.2602289173596262</v>
       </c>
       <c r="D22">
-        <v>0.2347485776889187</v>
+        <v>0.3662424045316612</v>
       </c>
       <c r="E22">
-        <v>0.1956832515025297</v>
+        <v>0.296099650352005</v>
       </c>
       <c r="F22">
-        <v>1.393696211939755</v>
+        <v>1.006165321317326</v>
       </c>
       <c r="G22">
-        <v>0.002443610672571974</v>
+        <v>0.0007668789575094388</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2128639601493347</v>
+        <v>0.3161574961068538</v>
       </c>
       <c r="K22">
-        <v>3.220519688785885</v>
+        <v>9.260030897821878</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.25154312463215</v>
+        <v>1.921162328732578</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07795300716981046</v>
+        <v>0.2499333560440817</v>
       </c>
       <c r="D23">
-        <v>0.2312780029040766</v>
+        <v>0.3532474104506349</v>
       </c>
       <c r="E23">
-        <v>0.19324870773508</v>
+        <v>0.28550755259797</v>
       </c>
       <c r="F23">
-        <v>1.394476962784893</v>
+        <v>0.9776998182963013</v>
       </c>
       <c r="G23">
-        <v>0.002444934603767157</v>
+        <v>0.0007692653657440006</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2105808854793878</v>
+        <v>0.3046440191853037</v>
       </c>
       <c r="K23">
-        <v>3.116838160598547</v>
+        <v>8.914258781757553</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.261718663818925</v>
+        <v>1.872623501214321</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06769361381330441</v>
+        <v>0.2115753585037652</v>
       </c>
       <c r="D24">
-        <v>0.2182108178124196</v>
+        <v>0.304548428394952</v>
       </c>
       <c r="E24">
-        <v>0.1841634045645435</v>
+        <v>0.2461181947005144</v>
       </c>
       <c r="F24">
-        <v>1.39946967604628</v>
+        <v>0.8779568790579049</v>
       </c>
       <c r="G24">
-        <v>0.00245013939288371</v>
+        <v>0.000778411950550284</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2021457853310835</v>
+        <v>0.2621842881354297</v>
       </c>
       <c r="K24">
-        <v>2.723654685526697</v>
+        <v>7.61443870684343</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.305753804946676</v>
+        <v>1.710946312842481</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05669376618271826</v>
+        <v>0.1712905140354337</v>
       </c>
       <c r="D25">
-        <v>0.2042842470229118</v>
+        <v>0.2529120324793581</v>
       </c>
       <c r="E25">
-        <v>0.1746528340273841</v>
+        <v>0.2049161229725911</v>
       </c>
       <c r="F25">
-        <v>1.409175821444236</v>
+        <v>0.7851699109518648</v>
       </c>
       <c r="G25">
-        <v>0.002456163689288478</v>
+        <v>0.0007885501724577252</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1934971814717699</v>
+        <v>0.2184247590417954</v>
       </c>
       <c r="K25">
-        <v>2.298564372189901</v>
+        <v>6.228058264277649</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.364902651233393</v>
+        <v>1.577275068768159</v>
       </c>
     </row>
   </sheetData>
